--- a/9-Orders.xlsx
+++ b/9-Orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165CAB3B-D9E7-44F8-9D84-848B3292110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7217E8E1-E535-4CD5-B34A-EFDCF1B5D3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECAC80E8-A881-48DC-ADF1-E7747DC1E89C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="76">
   <si>
     <t>OrderNo</t>
   </si>
@@ -250,13 +250,16 @@
   </si>
   <si>
     <t>C104</t>
+  </si>
+  <si>
+    <t>Redundancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +292,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -337,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,6 +389,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,14 +713,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE654D4-2043-456E-A9DA-3D651E8AB7FB}">
-  <dimension ref="C3:W55"/>
+  <dimension ref="A3:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
@@ -698,7 +730,9 @@
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" customWidth="1"/>
@@ -707,21 +741,21 @@
     <col min="19" max="19" width="12.140625" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" customWidth="1"/>
     <col min="24" max="24" width="9.85546875" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -748,7 +782,7 @@
       <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="15" t="s">
         <v>61</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -771,7 +805,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -822,7 +856,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -873,7 +907,10 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
@@ -924,7 +961,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
@@ -975,7 +1015,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1065,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
@@ -1076,17 +1116,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="13" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1104,8 +1144,8 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1133,7 +1173,7 @@
         <v>23</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="14" t="s">
         <v>0</v>
       </c>
       <c r="N16" s="7" t="s">
@@ -1158,7 +1198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>7</v>
       </c>
@@ -1213,7 +1253,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1308,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1363,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +1472,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
@@ -1487,12 +1527,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C25" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
@@ -1510,15 +1550,9 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1545,10 +1579,10 @@
       <c r="K28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="15" t="s">
         <v>61</v>
       </c>
       <c r="O28" s="7" t="s">
@@ -1557,23 +1591,8 @@
       <c r="P28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="U28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W28" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="8" t="s">
         <v>7</v>
       </c>
@@ -1615,25 +1634,8 @@
       <c r="P29" s="11">
         <v>150</v>
       </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="V29" s="8">
-        <v>75</v>
-      </c>
-      <c r="W29" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="8" t="s">
         <v>6</v>
       </c>
@@ -1675,25 +1677,8 @@
       <c r="P30" s="11">
         <v>650</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="T30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="U30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V30" s="8">
-        <v>650</v>
-      </c>
-      <c r="W30" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="8" t="s">
         <v>8</v>
       </c>
@@ -1735,25 +1720,8 @@
       <c r="P31" s="11">
         <v>320</v>
       </c>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="T31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="U31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V31" s="8">
-        <v>320</v>
-      </c>
-      <c r="W31" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="8" t="s">
         <v>9</v>
       </c>
@@ -1795,25 +1763,8 @@
       <c r="P32" s="11">
         <v>150</v>
       </c>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V32" s="8">
-        <v>150</v>
-      </c>
-      <c r="W32" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C33" s="8" t="s">
         <v>33</v>
       </c>
@@ -1854,25 +1805,8 @@
       <c r="P33" s="11">
         <v>450</v>
       </c>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="U33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="V33" s="8">
-        <v>225</v>
-      </c>
-      <c r="W33" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C34" s="8" t="s">
         <v>34</v>
       </c>
@@ -1914,482 +1848,573 @@
       <c r="P34" s="11">
         <v>150</v>
       </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="10" t="s">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L35" s="13"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="C38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="8">
+        <v>75</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="C40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="8">
+        <v>650</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="C41" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="8">
+        <v>320</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="C42" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U34" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V34" s="8">
+      <c r="F42" s="8">
         <v>150</v>
       </c>
-      <c r="W34" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="C43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="8">
+        <v>225</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C40" s="7" t="s">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I49" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M49" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O49" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="9">
-        <f>E41-2</f>
-        <v>44143</v>
-      </c>
-      <c r="E41" s="9">
-        <v>44145</v>
-      </c>
-      <c r="F41" s="11">
-        <v>101</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="8">
-        <v>51020</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C42" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="9">
-        <f>E42-3</f>
-        <v>43629</v>
-      </c>
-      <c r="E42" s="9">
-        <v>43632</v>
-      </c>
-      <c r="F42" s="11">
-        <v>102</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N42" s="8">
-        <v>45220</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="9">
-        <f>E43-4</f>
-        <v>43938</v>
-      </c>
-      <c r="E43" s="9">
-        <v>43942</v>
-      </c>
-      <c r="F43" s="11">
-        <v>103</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N43" s="8">
-        <v>32510</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="9">
-        <f>E44-2</f>
-        <v>44064</v>
-      </c>
-      <c r="E44" s="9">
-        <v>44066</v>
-      </c>
-      <c r="F44" s="11">
-        <v>103</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="8">
-        <v>41244</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C45" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="9">
-        <v>44232</v>
-      </c>
-      <c r="E45" s="9">
-        <v>44233</v>
-      </c>
-      <c r="F45" s="11">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="9">
-        <f>E46-3</f>
-        <v>44063</v>
-      </c>
-      <c r="E46" s="9">
-        <v>44066</v>
-      </c>
-      <c r="F46" s="11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C49" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="11">
-        <v>2</v>
+      <c r="D50" s="9">
+        <f>E50-2</f>
+        <v>44143</v>
+      </c>
+      <c r="E50" s="9">
+        <v>44145</v>
       </c>
       <c r="F50" s="11">
-        <v>150</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="10" t="s">
-        <v>62</v>
+        <v>101</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" s="8">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="N50" s="8">
+        <v>51020</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="11">
-        <v>1</v>
+      <c r="D51" s="9">
+        <f>E51-3</f>
+        <v>43629</v>
+      </c>
+      <c r="E51" s="9">
+        <v>43632</v>
       </c>
       <c r="F51" s="11">
-        <v>650</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="10" t="s">
-        <v>63</v>
+        <v>102</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="8">
-        <v>650</v>
+        <v>26</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="N51" s="8">
+        <v>45220</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="11">
-        <v>1</v>
+      <c r="D52" s="9">
+        <f>E52-4</f>
+        <v>43938</v>
+      </c>
+      <c r="E52" s="9">
+        <v>43942</v>
       </c>
       <c r="F52" s="11">
-        <v>320</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="10" t="s">
-        <v>65</v>
+        <v>103</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="8">
-        <v>320</v>
+        <v>24</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="N52" s="8">
+        <v>32510</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="11">
-        <v>1</v>
+      <c r="D53" s="9">
+        <f>E53-2</f>
+        <v>44064</v>
+      </c>
+      <c r="E53" s="9">
+        <v>44066</v>
       </c>
       <c r="F53" s="11">
-        <v>150</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53" s="8">
-        <v>150</v>
+        <v>45</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="N53" s="8">
+        <v>41244</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C54" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="11">
-        <v>2</v>
+      <c r="D54" s="9">
+        <v>44232</v>
+      </c>
+      <c r="E54" s="9">
+        <v>44233</v>
       </c>
       <c r="F54" s="11">
-        <v>450</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L54" s="8">
-        <v>225</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9">
+        <f>E55-3</f>
+        <v>44063</v>
+      </c>
+      <c r="E55" s="9">
+        <v>44066</v>
+      </c>
+      <c r="F55" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C58" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M58" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="11">
+        <v>2</v>
+      </c>
+      <c r="F59" s="11">
+        <v>150</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="8">
+        <v>75</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11">
+        <v>650</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="8">
+        <v>650</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="11">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11">
+        <v>320</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="8">
+        <v>320</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E62" s="11">
         <v>1</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F62" s="11">
         <v>150</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="10" t="s">
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L62" s="8">
         <v>150</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="M62" s="8" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C63" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="11">
+        <v>2</v>
+      </c>
+      <c r="F63" s="11">
+        <v>450</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L63" s="8">
+        <v>225</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C64" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11">
+        <v>150</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K5:K9 K17:K21 K10 K22 K29:K34 O41:O44" numberStoredAsText="1"/>
+    <ignoredError sqref="K5:K9 K17:K21 K10 K22 K29:K34" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>